--- a/ConstraintAutomata/data/Results.xlsx
+++ b/ConstraintAutomata/data/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dati-Andrea\GitHub\FinalStateMachineCombinatorial\ConstraintAutomata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45255878-23C6-4DAC-940F-1B2765746F09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D78DF4F-F806-4EFD-9936-3C7D7D9142D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5B1828EF-F025-41E2-97F0-13A64BDA66AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5B1828EF-F025-41E2-97F0-13A64BDA66AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="61">
   <si>
     <t>Automatons per batch</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t># Seq</t>
+  </si>
+  <si>
+    <t>Non monitoring</t>
   </si>
 </sst>
 </file>
@@ -485,37 +488,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -531,6 +510,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -10242,8 +10245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737776B2-7EEF-449A-A6D3-6E8B7066B483}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G4:G13"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10304,7 +10307,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -10342,7 +10345,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -10378,7 +10381,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -10414,7 +10417,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -10450,7 +10453,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -10486,7 +10489,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -10522,7 +10525,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -10558,7 +10561,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -10594,7 +10597,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="7">
         <v>9</v>
       </c>
@@ -10630,7 +10633,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -10666,7 +10669,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
@@ -10704,7 +10707,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="7">
         <v>2</v>
       </c>
@@ -10740,7 +10743,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="7">
         <v>3</v>
       </c>
@@ -10776,7 +10779,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="7">
         <v>4</v>
       </c>
@@ -10812,7 +10815,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7">
         <v>5</v>
       </c>
@@ -10848,7 +10851,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="7">
         <v>6</v>
       </c>
@@ -10884,7 +10887,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="7">
         <v>7</v>
       </c>
@@ -10921,7 +10924,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="7">
         <v>8</v>
       </c>
@@ -10957,7 +10960,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7">
         <v>9</v>
       </c>
@@ -10993,7 +10996,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="9">
         <v>10</v>
       </c>
@@ -11029,7 +11032,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5">
@@ -11067,7 +11070,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="7">
         <v>2</v>
       </c>
@@ -11103,7 +11106,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="7">
         <v>3</v>
       </c>
@@ -11139,7 +11142,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7">
         <v>4</v>
       </c>
@@ -11175,7 +11178,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7">
         <v>5</v>
       </c>
@@ -11211,7 +11214,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7">
         <v>6</v>
       </c>
@@ -11247,7 +11250,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7">
         <v>7</v>
       </c>
@@ -11283,7 +11286,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="7">
         <v>8</v>
       </c>
@@ -11319,7 +11322,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="7">
         <v>9</v>
       </c>
@@ -11355,7 +11358,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="9">
         <v>10</v>
       </c>
@@ -11391,7 +11394,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="5">
@@ -11429,7 +11432,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -11465,7 +11468,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="7">
         <v>3</v>
       </c>
@@ -11501,7 +11504,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="7">
         <v>4</v>
       </c>
@@ -11537,7 +11540,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="7">
         <v>5</v>
       </c>
@@ -11573,7 +11576,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="7">
         <v>6</v>
       </c>
@@ -11609,7 +11612,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7">
         <v>7</v>
       </c>
@@ -11645,7 +11648,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7">
         <v>8</v>
       </c>
@@ -11681,7 +11684,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="7">
         <v>9</v>
       </c>
@@ -11717,7 +11720,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="9">
         <v>10</v>
       </c>
@@ -11854,10 +11857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9FCB27-9E2E-4C0B-AD6B-6BAD69D42061}">
-  <dimension ref="B1:Q38"/>
+  <dimension ref="B1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11871,9 +11874,10 @@
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -11931,7 +11935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -11972,8 +11976,17 @@
       <c r="Q3" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -12019,8 +12032,17 @@
         <f>(P4/O4)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -12066,8 +12088,17 @@
         <f t="shared" ref="Q5:Q7" si="2">(P5/O5)*100</f>
         <v>3.9215686274509802</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -12113,8 +12144,17 @@
         <f t="shared" si="2"/>
         <v>2.9411764705882351</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -12160,8 +12200,17 @@
         <f t="shared" si="2"/>
         <v>1.9607843137254901</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -12193,7 +12242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -12234,8 +12283,28 @@
       <c r="Q9" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -12281,8 +12350,37 @@
         <f>(P10/O10)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="12">
+        <f>G2+G6+G10+G14</f>
+        <v>523</v>
+      </c>
+      <c r="V10" s="12">
+        <f>J2+J6+J10++J14</f>
+        <v>523</v>
+      </c>
+      <c r="W10" s="12">
+        <f>(V10/U10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>523</v>
+      </c>
+      <c r="AA10" s="12">
+        <f>J19+J23+J27+J31</f>
+        <v>523</v>
+      </c>
+      <c r="AB10" s="12">
+        <f>(AA10/Z10)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -12317,19 +12415,48 @@
         <v>14</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" ref="O11:O13" si="3">G3+G7+G11+G20+G24+G28+G15+G32</f>
+        <f>G3+G7+G11+G20+G24+G28+G15+G32</f>
         <v>1046</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" ref="P11:P13" si="4">J3+J7+J11+J20+J24+J28+J15+J32</f>
+        <f t="shared" ref="P11:P13" si="3">J3+J7+J11+J20+J24+J28+J15+J32</f>
         <v>591</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" ref="Q11:Q13" si="5">(P11/O11)*100</f>
+        <f t="shared" ref="Q11:Q13" si="4">(P11/O11)*100</f>
         <v>56.50095602294455</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="12">
+        <f>G3+G7+G11+G15</f>
+        <v>523</v>
+      </c>
+      <c r="V11" s="12">
+        <f>J3+J7+J11+J15</f>
+        <v>298</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" ref="W11:W13" si="5">(V11/U11)*100</f>
+        <v>56.978967495219891</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>523</v>
+      </c>
+      <c r="AA11" s="12">
+        <f>J20+J24+J28+J32</f>
+        <v>293</v>
+      </c>
+      <c r="AB11" s="12">
+        <f t="shared" ref="AB11:AB13" si="6">(AA11/Z11)*100</f>
+        <v>56.022944550669216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -12364,19 +12491,48 @@
         <v>15</v>
       </c>
       <c r="O12" s="13">
+        <f t="shared" ref="O11:O13" si="7">G4+G8+G12+G21+G25+G29+G16+G33</f>
+        <v>1046</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="3"/>
-        <v>1046</v>
-      </c>
-      <c r="P12" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="13">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="Q12" s="13">
+        <v>0.86042065009560231</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="12">
+        <f>G4+G8+G12+G16</f>
+        <v>523</v>
+      </c>
+      <c r="V12" s="12">
+        <f>J4+J8+J12+J16</f>
+        <v>4</v>
+      </c>
+      <c r="W12" s="12">
         <f t="shared" si="5"/>
-        <v>0.86042065009560231</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>0.76481835564053535</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>523</v>
+      </c>
+      <c r="AA12" s="12">
+        <f>J21+J25+J29+J33</f>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="12">
+        <f t="shared" si="6"/>
+        <v>0.95602294455066927</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -12411,19 +12567,48 @@
         <v>16</v>
       </c>
       <c r="O13" s="13">
+        <f t="shared" si="7"/>
+        <v>1046</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="3"/>
-        <v>1046</v>
-      </c>
-      <c r="P13" s="13">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="13">
         <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-      <c r="Q13" s="13">
+        <v>12.523900573613766</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="12">
+        <f>G5+G9+G13+G17</f>
+        <v>523</v>
+      </c>
+      <c r="V13" s="12">
+        <f>J5+J9+J13+J17</f>
+        <v>59</v>
+      </c>
+      <c r="W13" s="12">
         <f t="shared" si="5"/>
-        <v>12.523900573613766</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+        <v>11.281070745697896</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>523</v>
+      </c>
+      <c r="AA13" s="12">
+        <f>J22+J26+J30+J34</f>
+        <v>72</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" si="6"/>
+        <v>13.766730401529637</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -12454,12 +12639,12 @@
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="N14" s="20"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -12490,12 +12675,12 @@
       <c r="L15">
         <v>5</v>
       </c>
-      <c r="N15" s="20"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -12526,12 +12711,12 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="N16" s="20"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -12562,12 +12747,12 @@
       <c r="L17">
         <v>4</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -12608,8 +12793,28 @@
       <c r="Q19" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T19" s="12"/>
+      <c r="U19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -12655,8 +12860,37 @@
         <f>(P20/O20)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="12">
+        <f>H2+H6+H10+H14</f>
+        <v>20</v>
+      </c>
+      <c r="V20" s="12">
+        <f>K2+K6+K10+K14</f>
+        <v>20</v>
+      </c>
+      <c r="W20" s="12">
+        <f>(V20/U20)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="12">
+        <f>K19+K23+K27+K31</f>
+        <v>20</v>
+      </c>
+      <c r="AB20" s="12">
+        <f>(AA20/Z20)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -12691,19 +12925,48 @@
         <v>14</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" ref="O21:O23" si="6">H3+H7+H11+H20+H24+H28+H15+H32</f>
+        <f t="shared" ref="O21:O23" si="8">H3+H7+H11+H20+H24+H28+H15+H32</f>
         <v>40</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" ref="P21:P23" si="7">K3+K7+K11+K20+K24+K28+K15+K32</f>
+        <f t="shared" ref="P21:P23" si="9">K3+K7+K11+K20+K24+K28+K15+K32</f>
         <v>40</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" ref="Q21:Q23" si="8">(P21/O21)*100</f>
+        <f t="shared" ref="Q21:Q23" si="10">(P21/O21)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="12">
+        <f t="shared" ref="U21:U23" si="11">H3+H7+H11+H15</f>
+        <v>20</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" ref="V21:V23" si="12">K3+K7+K11+K15</f>
+        <v>20</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" ref="W21:W23" si="13">(V21/U21)*100</f>
+        <v>100</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" ref="AA21:AA23" si="14">K20+K24+K28+K32</f>
+        <v>20</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" ref="AB21:AB23" si="15">(AA21/Z21)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -12738,19 +13001,48 @@
         <v>15</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27.500000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="12">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -12785,19 +13077,48 @@
         <v>16</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="12">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -12829,7 +13150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -12870,8 +13191,28 @@
       <c r="Q25" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T25" s="12"/>
+      <c r="U25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -12906,8 +13247,8 @@
         <v>12</v>
       </c>
       <c r="O26" s="13">
-        <f>L2+L6+L10+L19+L23+L27+L14+L31</f>
-        <v>132</v>
+        <f>I2+I6+I10+I19+I23+I27+I14+I31</f>
+        <v>170</v>
       </c>
       <c r="P26" s="13">
         <f>L2+L6+L10+L19+L23+L27+L14+L31</f>
@@ -12915,10 +13256,39 @@
       </c>
       <c r="Q26" s="13">
         <f>(P26/O26)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+        <v>77.64705882352942</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="12">
+        <f>I2+I6+I10+I14</f>
+        <v>85</v>
+      </c>
+      <c r="V26" s="12">
+        <f>L2+L6+L10+L14</f>
+        <v>66</v>
+      </c>
+      <c r="W26" s="12">
+        <f>(V26/U26)*100</f>
+        <v>77.64705882352942</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>85</v>
+      </c>
+      <c r="AA26" s="12">
+        <f>L19+L23+L27+L31</f>
+        <v>66</v>
+      </c>
+      <c r="AB26" s="12">
+        <f>(AA26/Z26)*100</f>
+        <v>77.64705882352942</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -12953,19 +13323,48 @@
         <v>14</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" ref="O27:O29" si="9">L3+L7+L11+L20+L24+L28+L15+L32</f>
+        <f>I3+I7+I11+I20+I24+I28+I15+I32</f>
+        <v>170</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" ref="P27:P29" si="16">L3+L7+L11+L20+L24+L28+L15+L32</f>
         <v>107</v>
       </c>
-      <c r="P27" s="13">
-        <f t="shared" ref="P27:P29" si="10">L3+L7+L11+L20+L24+L28+L15+L32</f>
-        <v>107</v>
-      </c>
       <c r="Q27" s="13">
-        <f t="shared" ref="Q27:Q29" si="11">(P27/O27)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q27:Q29" si="17">(P27/O27)*100</f>
+        <v>62.941176470588232</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" ref="U27:U29" si="18">I3+I7+I11+I15</f>
+        <v>85</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" ref="V27:V29" si="19">L3+L7+L11+L15</f>
+        <v>54</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" ref="W27:W29" si="20">(V27/U27)*100</f>
+        <v>63.529411764705877</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>85</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" ref="AA27:AA29" si="21">L20+L24+L28+L32</f>
+        <v>53</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" ref="AB27:AB29" si="22">(AA27/Z27)*100</f>
+        <v>62.352941176470587</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -13000,19 +13399,48 @@
         <v>15</v>
       </c>
       <c r="O28" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O27:O29" si="23">I4+I8+I12+I21+I25+I29+I16+I33</f>
+        <v>170</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="P28" s="13">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
       <c r="Q28" s="13">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="20"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>85</v>
+      </c>
+      <c r="AA28" s="12">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AB28" s="12">
+        <f t="shared" si="22"/>
+        <v>7.0588235294117645</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -13047,19 +13475,48 @@
         <v>16</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
+        <v>170</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
-      <c r="P29" s="13">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
       <c r="Q29" s="13">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>28.235294117647058</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="12">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="V29" s="12">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="20"/>
+        <v>23.52941176470588</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>85</v>
+      </c>
+      <c r="AA29" s="12">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="AB29" s="12">
+        <f t="shared" si="22"/>
+        <v>32.941176470588232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -13091,7 +13548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -13123,7 +13580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -13155,7 +13612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -13187,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -13219,7 +13676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="O36" s="2" t="s">
         <v>30</v>
       </c>
@@ -13229,12 +13686,24 @@
       <c r="Q36" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="17" t="s">
+      <c r="V36" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" t="s">
+        <v>14</v>
+      </c>
+      <c r="X36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="2">
         <f>SUM(J2:J17)/SUM(G2:G17)</f>
         <v>0.42256214149139582</v>
@@ -13247,12 +13716,31 @@
         <f>SUM(L2:L17)/SUM(I2:I17)</f>
         <v>0.42352941176470588</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M38" s="17" t="s">
+      <c r="T37" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37">
+        <f>AVERAGE(W10,W20,W26)</f>
+        <v>92.549019607843135</v>
+      </c>
+      <c r="W37">
+        <f>AVERAGE(W11,W21,W27)</f>
+        <v>73.502793086641915</v>
+      </c>
+      <c r="X37">
+        <f>AVERAGE(W12,W22,W28)</f>
+        <v>10.156900236193904</v>
+      </c>
+      <c r="Y37">
+        <f>AVERAGE(W13,W23,W29)</f>
+        <v>33.27016083680126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="2">
         <f>SUM(J19:J34)/SUM(G19:G34)</f>
         <v>0.42686424474187379</v>
@@ -13264,6 +13752,25 @@
       <c r="Q38" s="2">
         <f>SUM(L19:L34)/SUM(I19:I34)</f>
         <v>0.45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38">
+        <f>AVERAGE(AB10,AB20,AB26)</f>
+        <v>92.549019607843135</v>
+      </c>
+      <c r="W38">
+        <f>AVERAGE(AB11,AB21,AB27)</f>
+        <v>72.791961909046606</v>
+      </c>
+      <c r="X38">
+        <f>AVERAGE(AB12,AB22,AB28)</f>
+        <v>12.671615491320813</v>
+      </c>
+      <c r="Y38">
+        <f>AVERAGE(AB13,AB23,AB29)</f>
+        <v>43.902635624039284</v>
       </c>
     </row>
   </sheetData>
@@ -13297,10 +13804,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -13350,7 +13857,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -13397,7 +13904,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
@@ -13442,7 +13949,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
@@ -13487,8 +13994,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -13532,7 +14039,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -13579,7 +14086,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
@@ -13624,7 +14131,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
@@ -13669,7 +14176,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -13714,7 +14221,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -13761,7 +14268,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
@@ -13806,7 +14313,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
@@ -13851,8 +14358,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="13">
@@ -13896,7 +14403,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -13943,7 +14450,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
@@ -13988,7 +14495,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
@@ -14034,7 +14541,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="13">
@@ -14108,17 +14615,17 @@
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -15471,7 +15978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A795F-0C73-4856-9DFC-A8B02114DBBE}">
   <dimension ref="A2:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X13" sqref="X13:X15"/>
     </sheetView>
   </sheetViews>
@@ -15482,37 +15989,37 @@
   <sheetData>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
         <v>23</v>
@@ -15523,8 +16030,8 @@
       <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13" t="s">
         <v>43</v>
@@ -15535,8 +16042,8 @@
       <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="12"/>
       <c r="P4" s="13" t="s">
         <v>32</v>
@@ -15547,8 +16054,8 @@
       <c r="R4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
       <c r="U4" s="12"/>
       <c r="V4" s="13" t="s">
         <v>34</v>
@@ -15559,15 +16066,15 @@
       <c r="X4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="27"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="19"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
@@ -15583,8 +16090,8 @@
         <f>(E5/D5)*100</f>
         <v>100</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="12" t="s">
         <v>12</v>
       </c>
@@ -15600,8 +16107,8 @@
         <f>(K5/J5)*100</f>
         <v>100</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="12" t="s">
         <v>12</v>
       </c>
@@ -15617,8 +16124,8 @@
         <f>(Q5/P5)*100</f>
         <v>100</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
       <c r="U5" s="12" t="s">
         <v>12</v>
       </c>
@@ -15634,13 +16141,13 @@
         <f>(W5/V5)*100</f>
         <v>95.294117647058812</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="27"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="19"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
@@ -15656,8 +16163,8 @@
         <f t="shared" ref="F6:F8" si="0">(E6/D6)*100</f>
         <v>6.3451776649746189E-2</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
@@ -15673,8 +16180,8 @@
         <f t="shared" ref="L6:L8" si="1">(K6/J6)*100</f>
         <v>66.773236956723196</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="12" t="s">
         <v>14</v>
       </c>
@@ -15690,8 +16197,8 @@
         <f t="shared" ref="R6:R8" si="2">(Q6/P6)*100</f>
         <v>100</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
       <c r="U6" s="12" t="s">
         <v>14</v>
       </c>
@@ -15707,15 +16214,15 @@
         <f t="shared" ref="X6:X8" si="3">(W6/V6)*100</f>
         <v>95.294117647058812</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="27" t="s">
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
@@ -15731,8 +16238,8 @@
         <f t="shared" si="0"/>
         <v>6.3451776649746189E-2</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
@@ -15748,8 +16255,8 @@
         <f t="shared" si="1"/>
         <v>7.4135853952367714E-2</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="12" t="s">
         <v>15</v>
       </c>
@@ -15765,8 +16272,8 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
       <c r="U7" s="12" t="s">
         <v>15</v>
       </c>
@@ -15782,16 +16289,16 @@
         <f t="shared" si="3"/>
         <v>5.8823529411764701</v>
       </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="27">
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="19">
         <f>AVERAGE(L6:L8,R6:R8,X6:X8)</f>
         <v>51.096988049227662</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
@@ -15807,8 +16314,8 @@
         <f t="shared" si="0"/>
         <v>6.3451776649746189E-2</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
@@ -15824,8 +16331,8 @@
         <f t="shared" si="1"/>
         <v>11.996107867667501</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="12" t="s">
         <v>16</v>
       </c>
@@ -15841,8 +16348,8 @@
         <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
       <c r="U8" s="12" t="s">
         <v>16</v>
       </c>
@@ -15858,74 +16365,74 @@
         <f t="shared" si="3"/>
         <v>62.352941176470587</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="27"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="30"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="25"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
         <v>23</v>
@@ -15936,8 +16443,8 @@
       <c r="F12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13" t="s">
         <v>43</v>
@@ -15948,8 +16455,8 @@
       <c r="L12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13" t="s">
         <v>32</v>
@@ -15960,8 +16467,8 @@
       <c r="R12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
       <c r="U12" s="12"/>
       <c r="V12" s="13" t="s">
         <v>34</v>
@@ -15972,13 +16479,13 @@
       <c r="X12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="27"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="19"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
@@ -15994,8 +16501,8 @@
         <f t="shared" ref="F13:F15" si="4">(E13/D13)*100</f>
         <v>2.1739130434782608</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="12" t="s">
         <v>14</v>
       </c>
@@ -16011,8 +16518,8 @@
         <f t="shared" ref="L13:L15" si="5">(K13/J13)*100</f>
         <v>26.438698915763137</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="12" t="s">
         <v>14</v>
       </c>
@@ -16028,8 +16535,8 @@
         <f t="shared" ref="R13:R15" si="6">(Q13/P13)*100</f>
         <v>85</v>
       </c>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="12" t="s">
         <v>14</v>
       </c>
@@ -16045,15 +16552,15 @@
         <f t="shared" ref="X13:X14" si="7">(W13/V13)*100</f>
         <v>57.647058823529406</v>
       </c>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="27" t="s">
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
@@ -16069,8 +16576,8 @@
         <f t="shared" si="4"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
         <v>15</v>
       </c>
@@ -16086,8 +16593,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="12" t="s">
         <v>15</v>
       </c>
@@ -16103,8 +16610,8 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="12" t="s">
         <v>15</v>
       </c>
@@ -16120,16 +16627,16 @@
         <f t="shared" si="7"/>
         <v>2.3529411764705883</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="27">
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="19">
         <f>AVERAGE(L13:L15,R13:R15,X13:X15)</f>
         <v>29.032539219623224</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
@@ -16145,8 +16652,8 @@
         <f t="shared" si="4"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="12" t="s">
         <v>16</v>
       </c>
@@ -16162,8 +16669,8 @@
         <f t="shared" si="5"/>
         <v>0.14827170790473543</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="12" t="s">
         <v>16</v>
       </c>
@@ -16179,8 +16686,8 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="12" t="s">
         <v>16</v>
       </c>
@@ -16196,38 +16703,38 @@
         <f>(W15/V15)*100</f>
         <v>24.705882352941178</v>
       </c>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="27"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="19"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="30"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
